--- a/test.xlsx
+++ b/test.xlsx
@@ -14,273 +14,294 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
-  <si>
-    <t>NIVEA Pamper Time Giftbox KSh 495 https://www.jumia.co.ke/nivea-pamper-time-giftbox-34035645.html</t>
-  </si>
-  <si>
-    <t>NIVEA Perfect &amp; Radiant Even Tone Day Cream SPF 15 For Women-50ml KSh 365 https://www.jumia.co.ke/perfect-radiant-even-tone-day-cream-spf-15-for-women-50ml-nivea-mpg328042.html</t>
-  </si>
-  <si>
-    <t>NIVEA Strawberry Shine Lip Balm + FREE Blackberry Shine Lip Balm KSh 520 https://www.jumia.co.ke/nivea-strawberry-shine-lip-balm-free-blackberry-shine-lip-balm-44530296.html</t>
-  </si>
-  <si>
-    <t>NIVEA Light Moisturiser Day Cream SPF 15 For Women - 50ml KSh 510 https://www.jumia.co.ke/nivea-light-moisturiser-day-cream-spf-15-for-women-50ml-25369686.html</t>
-  </si>
-  <si>
-    <t>NIVEA Lemongrass &amp; Oil Shower Gel For Women - 250ml (Pack Of 2) KSh 740 https://www.jumia.co.ke/nivea-lemongrass-oil-shower-gel-for-women-250ml-pack-of-2-27736779.html</t>
-  </si>
-  <si>
-    <t>NIVEA Hydro Care Lip Balm + FREE Blackberry Shine Lip Balm KSh 520 https://www.jumia.co.ke/nivea-hydro-care-lip-balm-free-blackberry-shine-lip-balm-44530299.html</t>
-  </si>
-  <si>
-    <t>NIVEA Perfect &amp; Matte Effect Oil Control Face Wash KSh 260 https://www.jumia.co.ke/nivea-perfect-matte-effect-oil-control-face-wash-38986114.html</t>
-  </si>
-  <si>
-    <t>NIVEA MEN Deep Body Lotion For Men - 400ml (Pack Of 2) KSh 970 https://www.jumia.co.ke/nivea-men-deep-body-lotion-for-men-400ml-pack-of-2-32703155.html</t>
-  </si>
-  <si>
-    <t>NIVEA 3 For 2 Cherry Blossom &amp; Jojoba Oil Body Lotion For Women 200ml KSh 885 https://www.jumia.co.ke/nivea-3-for-2-cherry-blossom-jojoba-oil-body-lotion-for-women-200ml-32790530.html</t>
-  </si>
-  <si>
-    <t>NIVEA MEN Re-fresh Giftbox: KSh 636 https://www.jumia.co.ke/nivea-men-re-fresh-giftbox-34040657.html</t>
-  </si>
-  <si>
-    <t>NIVEA Q10 Power Anti-Wrinkle Night &amp; Day Cream For Women KSh 2,610 https://www.jumia.co.ke/nivea-q10-power-anti-wrinkle-night-day-cream-for-women-27736783.html</t>
-  </si>
-  <si>
-    <t>NIVEA Perfect &amp; Radiant 3 In 1 Cleanser For Women - 150ml KSh 765 https://www.jumia.co.ke/perfect-radiant-3-in-1-cleanser-for-women-150ml-nivea-mpg227091.html</t>
-  </si>
-  <si>
-    <t>NIVEA MEN Deep Body Lotion For Men - 400ml KSh 485 https://www.jumia.co.ke/nivea-men-deep-body-lotion-for-men-400ml-29605989.html</t>
-  </si>
-  <si>
-    <t>NIVEA Perfect &amp; Radiant Luminous630 Anti Dark Marks Serum &amp; Day Cream KSh 3,728 https://www.jumia.co.ke/nivea-perfect-radiant-luminous630-anti-dark-marks-serum-day-cream-39072582.html</t>
-  </si>
-  <si>
-    <t>NIVEA Moisturising Sun Lotion SPF 50+ - 200ml KSh 1,805 https://www.jumia.co.ke/nivea-moisturising-sun-lotion-spf-50-200ml-25369712.html</t>
-  </si>
-  <si>
-    <t>NIVEA Refreshing Face Wash For Women - 150ml (Buy 1, Get 1) KSh 1,020 https://www.jumia.co.ke/nivea-refreshing-face-wash-for-women-150ml-buy-1-get-1-43621656.html</t>
-  </si>
-  <si>
-    <t>NIVEA Rich Nourishing Body Lotion For Women - 400ml (Pack Of 2) KSh 830 https://www.jumia.co.ke/nivea-rich-nourishing-body-lotion-for-women-400ml-pack-of-2-32790517.html</t>
-  </si>
-  <si>
-    <t>NIVEA MEN Deep Antibacterial Anti-Perspirant Rollon,48h - 50ml (Pack Of 2) KSh 710 https://www.jumia.co.ke/nivea-men-deep-antibacterial-anti-perspirant-rollon48h-50ml-pack-of-2-30101703.html</t>
-  </si>
-  <si>
-    <t>NIVEA Cherry Blossom &amp; Jojoba Oil Body Lotion - 400ml (Pack Of 2) KSh 970 https://www.jumia.co.ke/nivea-cherry-blossom-jojoba-oil-body-lotion-400ml-pack-of-2-30100004.html</t>
-  </si>
-  <si>
-    <t>NIVEA Blackberry Shine Lip Balm For Women - 4.8g (Buy 1, Get 1 FREE) KSh 520 https://www.jumia.co.ke/nivea-blackberry-shine-lip-balm-for-women-4.8g-buy-1-get-1-free-44530298.html</t>
-  </si>
-  <si>
-    <t>NIVEA Shea Smooth Body Lotion For Women - 400ml (Pack Of 2) KSh 830 https://www.jumia.co.ke/nivea-shea-smooth-body-lotion-for-women-400ml-pack-of-2-31932894.html</t>
-  </si>
-  <si>
-    <t>NIVEA Fresh Cherry Anti-Perspirant Rollon For Women - 50ml KSh 315 https://www.jumia.co.ke/nivea-fresh-cherry-anti-perspirant-rollon-for-women-50ml-30104313.html</t>
-  </si>
-  <si>
-    <t>NIVEA Repair &amp; Care Body Lotion For Women - 400ml (Pack Of 2) KSh 920 https://www.jumia.co.ke/nivea-repair-care-body-lotion-for-women-400ml-pack-of-2-32790515.html</t>
-  </si>
-  <si>
-    <t>NIVEA Perfect &amp; Radiant Even Tone Mattifying Day Cream SPF 15 - 50ml KSh 448 https://www.jumia.co.ke/nivea-perfect-radiant-even-tone-mattifying-day-cream-spf-15-50ml-43704492.html</t>
-  </si>
-  <si>
-    <t>NIVEA Black &amp; White Invisible Clear, 48h - 150ml KSh 400 https://www.jumia.co.ke/nivea-black-white-invisible-clear-48h-150ml-25439110.html</t>
-  </si>
-  <si>
-    <t>NIVEA Nourishing Cocoa Body Lotion With Cocoa Butter For Women - 400ml KSh 295 https://www.jumia.co.ke/nivea-nourishing-cocoa-body-lotion-with-cocoa-butter-for-women-400ml-25355290.html</t>
-  </si>
-  <si>
-    <t>NIVEA Perfect &amp; Radiant Micellar Water For Women - 400ml KSh 560 https://www.jumia.co.ke/nivea-perfect-radiant-micellar-water-for-women-400ml-25369675.html</t>
-  </si>
-  <si>
-    <t>NIVEA MEN Deep Antibacterial Anti-Perspirant Spray, 48h -150ml (Pack Of 2) KSh 800 https://www.jumia.co.ke/nivea-men-deep-antibacterial-anti-perspirant-spray-48h-150ml-pack-of-2-32703194.html</t>
-  </si>
-  <si>
-    <t>NIVEA Refreshing Face Wash And Day Cream-Normal Skin KSh 1,020 https://www.jumia.co.ke/nivea-refreshing-face-wash-and-day-cream-normal-skin-39073573.html</t>
-  </si>
-  <si>
-    <t>NIVEA 2 In 1 Cleanser &amp; Toner For Women - 200ml KSh 615 https://www.jumia.co.ke/2-in-1-cleanser-toner-for-women-200ml-nivea-mpg224574.html</t>
-  </si>
-  <si>
-    <t>NIVEA Cherry Blossom &amp; Jojoba Oil Body Lotion For Women - 400ml KSh 485 https://www.jumia.co.ke/nivea-cherry-blossom-jojoba-oil-body-lotion-for-women-400ml-25459373.html</t>
-  </si>
-  <si>
-    <t>NIVEA MEN Deep Antibacterial Anti-Perspirant Rollon For Men, 48h- 50ml KSh 355 https://www.jumia.co.ke/nivea-men-deep-antibacterial-anti-perspirant-rollon-for-men-48h-50ml-25439131.html</t>
-  </si>
-  <si>
-    <t>NIVEA MEN Fresh Active Anti-Perspirant Spray For Men, 48h - 150ml KSh 300 https://www.jumia.co.ke/nivea-men-fresh-active-anti-perspirant-spray-for-men-48h-150ml-25439113.html</t>
-  </si>
-  <si>
-    <t>NIVEA Active Lip Balm For Men + FREE Blackberry Shine Lip Balm KSh 520 https://www.jumia.co.ke/nivea-active-lip-balm-for-men-free-blackberry-shine-lip-balm-44530297.html</t>
-  </si>
-  <si>
-    <t>NIVEA MEN Cool Kick Anti-Perspirant Rollon For Men, 48h - 50ml (2 Pack) KSh 630 https://www.jumia.co.ke/nivea-men-cool-kick-anti-perspirant-rollon-for-men-48h-50ml-2-pack-31932898.html</t>
-  </si>
-  <si>
-    <t>NIVEA Purifying Face Wash For Women - 150ml KSh 510 https://www.jumia.co.ke/nivea-purifying-face-wash-for-women-150ml-25369672.html</t>
-  </si>
-  <si>
-    <t>NIVEA MEN Black &amp; White Original Anti-Perspirant Rollon - 50ml (Pack Of 2) KSh 710 https://www.jumia.co.ke/nivea-men-black-white-original-anti-perspirant-rollon-50ml-pack-of-2-32703166.html</t>
-  </si>
-  <si>
-    <t>NIVEA Waterlily &amp; Oil Shower Gel For Women 250ml KSh 370 https://www.jumia.co.ke/nivea-waterlily-oil-shower-gel-for-women-250ml-47263693.html</t>
-  </si>
-  <si>
-    <t>NIVEA Rich Nourishing Body Lotion For Women - 400ml KSh 301 https://www.jumia.co.ke/rich-nourishing-body-lotion-for-women-400ml-nivea-mpg332824.html</t>
-  </si>
-  <si>
-    <t>NIVEA Black &amp; White Invisible Silky Smooth Anti-Perspirant Rollon-50ml KSh 355 https://www.jumia.co.ke/nivea-black-white-invisible-silky-smooth-anti-perspirant-rollon-50ml-25439120.html</t>
-  </si>
-  <si>
-    <t>NIVEA Blackberry Shine Lip Balm For Women - 4.8g (Pack Of 2) KSh 520 https://www.jumia.co.ke/nivea-blackberry-shine-lip-balm-for-women-4.8g-pack-of-2-32703197.html</t>
-  </si>
-  <si>
-    <t>Oppo A57, 3GB RAM+ 32 GB ROM.. DUAL SIM..Gold... KSh 9,500 https://www.jumia.co.ke/oppo-a57-3gb-ram-32-gb-rom..-dual-sim..gold...-47983627.html</t>
-  </si>
-  <si>
-    <t>Oppo A15 6.52" HD+Screen, (3GB RAM+32GB ROM),4230mAh,4G KSh 13,999 https://www.jumia.co.ke/oppo-a15-6.52-hdscreen-3gb-ram32gb-rom4230mah4g-44206966.html</t>
-  </si>
-  <si>
-    <t>Oppo A15 - 6.52" - 2GB RAM + 32GB - 4230mAh - Dual SIM - 4G - Mystery Blue KSh 13,999 https://www.jumia.co.ke/oppo-a15-6.52-2gb-ram-32gb-4230mah-dual-sim-4g-mystery-blue-34105362.html</t>
-  </si>
-  <si>
-    <t>Oppo Reno6 5G, 6.43", 8GB RAM + 128GB (Dual SIM), 4300 MAh, Aurora + Free Gifts KSh 59,999 https://www.jumia.co.ke/oppo-reno6-5g-6.43-8gb-ram-128gb-dual-sim-4300-mah-aurora-free-gifts-47231186.html</t>
-  </si>
-  <si>
-    <t>Oppo Reno 5F, 6.43", 128GB + 8GB RAM (Dual SIM), 4310mAh - Fluid Black KSh 31,999 https://www.jumia.co.ke/oppo-reno-5f-6.43-128gb-8gb-ram-dual-sim-4310mah-fluid-black-35042110.html</t>
-  </si>
-  <si>
-    <t>Oppo A15, 6.52", 32GB + 3GB RAM (Dual SIM), 4230 MAh, Blue KSh 15,999 https://www.jumia.co.ke/oppo-a15-6.52-32gb-3gb-ram-dual-sim-4230-mah-blue-35899647.html</t>
-  </si>
-  <si>
-    <t>Oppo In-Ear HEADPHONES A3s F7 F5 A37 F9 A7 R11 R15 F3 KSh 550 https://www.jumia.co.ke/in-ear-headphones-a3s-f7-f5-a37-f9-a7-r11-r15-f3-oppo-mpg230483.html</t>
-  </si>
-  <si>
-    <t>Oppo A54, 6.51", (128GB ROM+4GB) RAM, Dual SIM, 5000mAh + FREE GIFTS KSh 23,999 https://www.jumia.co.ke/oppo-a54-6.51-128gb-rom4gb-ram-dual-sim-5000mah-free-gifts-44205046.html</t>
-  </si>
-  <si>
-    <t>Oppo Reno 5F, 6.4",128GB/8GB-48MP-4G-(Dual SIM)-Purple+FREE FLASHGIFTS KSh 30,699 https://www.jumia.co.ke/oppo-reno-5f-6.4128gb8gb-48mp-4g-dual-sim-purplefree-flashgifts-44029214.html</t>
-  </si>
-  <si>
-    <t>Oppo A15 - 6.52" - 2GB RAM + 32GB - 4230mAh - Dual SIM - 4G - Mystery Blue KSh 14,399 https://www.jumia.co.ke/a15-6.52-2gb-ram-32gb-4230mah-dual-sim-4g-mystery-blue-oppo-mpg336240.html</t>
-  </si>
-  <si>
-    <t>Oppo A15S, 6.52", 4GB RAM + 64GB (Dual SIM), 4230 MAh, White KSh 19,999 https://www.jumia.co.ke/oppo-a15s-6.52-4gb-ram-64gb-dual-sim-4230-mah-white-35899643.html</t>
-  </si>
-  <si>
-    <t>Oppo Charger VOOC 20Watt Universal Adapters KSh 1,009 https://www.jumia.co.ke/charger-vooc-20watt-universal-adapters-oppo-mpg307975.html</t>
-  </si>
-  <si>
-    <t>Oppo A54, 6.51", 64GB + 4GB RAM (Dual SIM), 5000mAh, Starry Blue KSh 21,999 https://www.jumia.co.ke/oppo-a54-6.51-64gb-4gb-ram-dual-sim-5000mah-starry-blue-41619161.html</t>
-  </si>
-  <si>
-    <t>Oppo VOOC Type C Data &amp; Charging Cable For All Phones KSh 499 https://www.jumia.co.ke/charging-cable-for-all-oppo-smart-phones-white.-generic-mpg173190.html</t>
-  </si>
-  <si>
-    <t>Oppo Hands Free In Ear Headset With 3.5mm Jack Compatible For All Devices KSh 699 https://www.jumia.co.ke/oppo-hands-free-in-ear-headset-with-3.5mm-jack-compatible-for-all-devices-45875655.html</t>
-  </si>
-  <si>
-    <t>Oppo A15 - 6.52" - 2GB RAM + 32GB - 4230mAh - Dual SIM - 4G - Dynamic Black KSh 13,999 https://www.jumia.co.ke/oppo-a15-6.52-2gb-ram-32gb-4230mah-dual-sim-4g-dynamic-black-34105363.html</t>
-  </si>
-  <si>
-    <t>Oppo A15S, 6.52", 4GB RAM + 64GB (Dual SIM), 4230 MAh, Black KSh 19,999 https://www.jumia.co.ke/oppo-a15s-6.52-4gb-ram-64gb-dual-sim-4230-mah-black-35899644.html</t>
-  </si>
-  <si>
-    <t>Oppo Reno 5, 6.43", 128GB + 8GB RAM (Dual SIM), 5G _ Black + Free Smart Watch KSh 39,699 https://www.jumia.co.ke/oppo-reno-5-6.43-128gb-8gb-ram-dual-sim-5g-black-free-smart-watch-39027261.html</t>
-  </si>
-  <si>
-    <t>Oppo Band - 1.1" Full Colour AMOLED Screen - Black KSh 5,999 https://www.jumia.co.ke/oppo-band-1.1-full-colour-amoled-screen-black-41616465.html</t>
-  </si>
-  <si>
-    <t>Oppo Reno6 5G, 6.43", 8GB RAM + 128GB (Dual SIM),4300 MAh, Stellar Black + Free Gifts KSh 59,999 https://www.jumia.co.ke/oppo-reno6-5g-6.43-8gb-ram-128gb-dual-sim4300-mah-stellar-black-free-gifts-47231185.html</t>
-  </si>
-  <si>
-    <t>Oppo A54, 6.51",// 128GB + 4GB RAM// (Dual SIM),// 5000mAh, Black //Free Smart WatcH KSh 24,300 https://www.jumia.co.ke/oppo-a54-6.51-128gb-4gb-ram-dual-sim-5000mah-black-free-smart-watch-43685756.html</t>
-  </si>
-  <si>
-    <t>Oppo A54, 6.51", 64GB + 4GB RAM (Dual SIM), 5000mAh, Crystal Black KSh 21,999 https://www.jumia.co.ke/oppo-a54-6.51-64gb-4gb-ram-dual-sim-5000mah-crystal-black-41614589.html</t>
-  </si>
-  <si>
-    <t>Oppo A54, 6.51", 128GB + 4GB RAM (Dual SIM), 5000mAh, Black + Free Smart Watch KSh 25,149 https://www.jumia.co.ke/oppo-a54-6.51-128gb-4gb-ram-dual-sim-5000mah-black-free-smart-watch-39205939.html</t>
-  </si>
-  <si>
-    <t>Oppo Reno 5, 6.43", 128GB + 8GB RAM (Dual SIM), 4300mAh, 5G - Fantasy Silver KSh 41,999 https://www.jumia.co.ke/oppo-reno-5-6.43-128gb-8gb-ram-dual-sim-4300mah-5g-fantasy-silver-35042106.html</t>
-  </si>
-  <si>
-    <t>Oppo A15, 6.52", 32GB + 3GB RAM (Dual SIM), 4230 MAh, Black KSh 15,999 https://www.jumia.co.ke/oppo-a15-6.52-32gb-3gb-ram-dual-sim-4230-mah-black-35899646.html</t>
-  </si>
-  <si>
-    <t>Oppo A15, 6.52'' Screen, 32GB+3GB RAM, 4230mAh - Black+W, BT KSh 15,633 https://www.jumia.co.ke/oppo-a15-6.52-screen-32gb3gb-ram-4230mah-blackw-bt-45378840.html</t>
-  </si>
-  <si>
-    <t>Oppo A74, 6.5", 128GB + 6GB RAM (Dual SIM), 5000mAh, Prism Black KSh 28,999 https://www.jumia.co.ke/oppo-a74-6.5-128gb-6gb-ram-dual-sim-5000mah-prism-black-43662517.html</t>
-  </si>
-  <si>
-    <t>Oppo A15S, 6.52", 4GB RAM + 64GB (Dual SIM), 4230 MAh, Blue KSh 19,999 https://www.jumia.co.ke/oppo-a15s-6.52-4gb-ram-64gb-dual-sim-4230-mah-blue-35899645.html</t>
-  </si>
-  <si>
-    <t>Oppo VOOC USB Cable Super Fast Charge Charging Cord KSh 400 https://www.jumia.co.ke/oppo-vooc-usb-cable-super-fast-charge-charging-cord-21125553.html</t>
-  </si>
-  <si>
-    <t>Oppo Reno 5F, 6.43", 128GB + 8GB RAM (Dual SIM), 4310mAh - Fantastic Purple KSh 31,999 https://www.jumia.co.ke/oppo-reno-5f-6.43-128gb-8gb-ram-dual-sim-4310mah-fantastic-purple-35042112.html</t>
-  </si>
-  <si>
-    <t>Oppo VOOC USB Cable Super Fast Charge 7 Pin Charging Cord Durable USB Wire - White. KSh 456 https://www.jumia.co.ke/vooc-usb-cable-super-fast-charge-7-pin-charging-cord-durable-usb-wire-white.-oppo-mpg213091.html</t>
-  </si>
-  <si>
-    <t>Oppo Reno 5, 6.43", 128GB + 8GB RAM (Dual SIM), 4300mAh, Fantasy Silver KSh 38,100 https://www.jumia.co.ke/reno-5-6.43-128gb-8gb-ram-dual-sim-4300mah-fantasy-silver-oppo-mpg302258.html</t>
-  </si>
-  <si>
-    <t>Oppo A15s 6.52” , 4GB RAM+64GB,13MP, 4230mAh, Dual SIM -Blue+FREE Ring, Selfie &amp; OTG KSh 18,999 https://www.jumia.co.ke/a15s-6.52-4gb64gb-4230mah-13mp-dual-sim-bluefree-selfieotg-ring-oppo-mpg307962.html</t>
-  </si>
-  <si>
-    <t>Oppo A74 5G, 6.5", 128GB + 6GB RAM (Dual SIM), 5000mAh, Midnight Blue KSh 26,999 https://www.jumia.co.ke/a74-5g-6.5-128gb-6gb-ram-dual-sim-5000mah-midnight-blue-oppo-mpg307973.html</t>
-  </si>
-  <si>
-    <t>Oppo VOOC USB Cable Super Fast Charge KSh 699 https://www.jumia.co.ke/oppo-vooc-usb-cable-super-fast-charge-35150087.html</t>
-  </si>
-  <si>
-    <t>Oppo Reno 6 5G, 6.4"-128GB/8GB-64MP-4300mAh-(Dual SIM)-5G-Aurora+ Free FlashGIFTS KSh 59,299 https://www.jumia.co.ke/oppo-reno-6-5g-6.4-128gb8gb-64mp-4300mah-dual-sim-5g-aurora-free-flashgifts-48169710.html</t>
-  </si>
-  <si>
-    <t>Oppo A54, 6.51", 128GB + 4GB RAM (Dual SIM), 5000mAh, Crystal Black KSh 24,999 https://www.jumia.co.ke/oppo-a54-6.51-128gb-4gb-ram-dual-sim-5000mah-crystal-black-39184862.html</t>
-  </si>
-  <si>
-    <t>Oppo F5,6.0'' Display,4GB+64GB,16MP Back + 20MP Front Cam, Duosim,Facial Unlock-Black KSh 14,190 https://www.jumia.co.ke/oppo-f56.0-display4gb64gb16mp-back-20mp-front-cam-duosimfacial-unlock-black-45345880.html</t>
-  </si>
-  <si>
-    <t>Oppo 65W TYPE C SUPER VOOC Charger R17 Find X RENO ACE2 KSh 1,099 https://www.jumia.co.ke/oppo-65w-type-c-super-vooc-charger-r17-find-x-reno-ace2-33628025.html</t>
-  </si>
-  <si>
-    <t>Oppo A54, 6.51", 64GB + 4GB RAM (Dual SIM), 5000mAh, Starry Blue KSh 20,498 https://www.jumia.co.ke/a54-6.51-64gb-4gb-ram-dual-sim-5000mah-starry-blue-oppo-mpg323596.html</t>
-  </si>
-  <si>
-    <t>Oppo Type C VOOC Fast_Charger KSh 849 https://www.jumia.co.ke/type-c-vooc-fastcharger-oppo-mpg307988.html</t>
-  </si>
-  <si>
-    <t>Oppo A15 6.52" Inch - 2GB RAM - 32GB ROM - 13MP+2MP Dual Camera - 4G Blue KSh 13,999 https://www.jumia.co.ke/a15-6.52-inch-2gb-ram-32gb-rom-13mp2mp-dual-camera-4g-blue-oppo-mpg301616.html</t>
-  </si>
-  <si>
-    <t>Oppo A54, 6.51", 128GB/4GB RAM-4G-48MP-(Dual SIM)-5000mAh-Crystal Black KSh 23,999 https://www.jumia.co.ke/a54-6.51-128gb4gb-ram-4g-48mp-dual-sim-5000mah-crystal-black-oppo-mpg323594.html</t>
-  </si>
-  <si>
-    <t>Oppo Reno4, 6.4", 128 GB + 8 GB (Dual SIM) - Space Black + Free W11 KSh 39,999 https://www.jumia.co.ke/oppo-reno4-6.4-128-gb-8-gb-dual-sim-space-black-free-w11-33664860.html</t>
-  </si>
-  <si>
-    <t>Oppo A15s 6.52” , 4GB RAM +64GB, 4230mAh, 13MP, Dual SIM KSh 19,174 https://www.jumia.co.ke/oppo-a15s-6.52-4gb-ram-64gb-4230mah-13mp-dual-sim-44205089.html</t>
-  </si>
-  <si>
-    <t>Oppo Earphones-For White KSh 785 https://www.jumia.co.ke/oppo-earphones-for-white-43873125.html</t>
-  </si>
-  <si>
-    <t>Oppo A74 6.5", 128GB + 6GB RAM (Dual SIM), 5000mAh, Midnight Blue KSh 28,999 https://www.jumia.co.ke/oppo-a74-6.5-128gb-6gb-ram-dual-sim-5000mah-midnight-blue-43662518.html</t>
-  </si>
-  <si>
-    <t>Oppo F9- 6.3" - 64GB+4GB RAM- 25MP Selfie - Dual SIM 4G - Red KSh 35,990 https://www.jumia.co.ke/f9-6.3-64gb-4gb-ram-25mp-front-camera-dual-sim-4g-red-oppo-mpg118412.html</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t>Infinix Smart 5, Black, 6.6", 32GB + 2GB RAM (Dual SIM), 3G, 5000MAh + FREE GIFTS KSh 10,598 https://www.jumia.co.ke/infinix-smart-5-black-6.6-32gb-2gb-ram-dual-sim-3g-5000mah-free-gifts-33647374.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, 4G-6.6"-2GB/32GB-(Dual Sim)-5000MAh-Ocean Wave+Free SSGifts KSh 11,299 https://www.jumia.co.ke/infinix-smart-5-4g-6.6-2gb32gb-dual-sim-5000mah-ocean-wavefree-ssgifts-35006084.html</t>
+  </si>
+  <si>
+    <t>Infinix Note 10, 6.95", 128GB + 4GB RAM (Dual SIM), 7° Purple KSh 18,999 https://www.jumia.co.ke/note-10-6.95-128gb-4gb-ram-dual-sim-7-purple-infinix-mpg310191.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, 6.6"Display,32GB ROM+2GB RAM,5000mAh+Otg+Selfie+Ring (Dual SIM) - Black KSh 10,999 https://www.jumia.co.ke/infinix-smart-5-6.6display32gb-rom2gb-ram5000mahotgselfiering-dual-sim-black-32286069.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, Ocean Wave, 6.6", 32GB + 2GB RAM (Dual SIM), 3G, 5000MAh +FREE GIFTS KSh 10,555 https://www.jumia.co.ke/infinix-smart-5-ocean-wave-6.6-32gb-2gb-ram-dual-sim-3g-5000mah-free-gifts-33647373.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021, 6.1", 32GB + 2GB RAM (Dual SIM), 3G LTE, 5000mAh, Quartz Green KSh 9,199 https://www.jumia.co.ke/infinix-smart-hd-2021-6.1-32gb-2gb-ram-dual-sim-3g-lte-5000mah-quartz-green-45362231.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10 Play, PROXIMITY SENSOR 6.82", 64GB+ 4GB RAM (Dual SIM), 4G, 6000mAh-BLACK KSh 13,999 https://www.jumia.co.ke/infinix-hot-10-play-proximity-sensor-6.82-64gb-4gb-ram-dual-sim-4g-6000mah-black-45379830.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, 6.6",2GB+32GB,8MP,3G Dual Sim,5000MAh-Ocean Wave + FREE GIFTS KSh 10,788 https://www.jumia.co.ke/infinix-smart-5-6.62gb32gb8mp3g-dual-sim5000mah-ocean-wave-free-gifts-33114095.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10 Play, 6.82", 64GB + 4GB RAM (Dual SIM), 4G, 6000mAh, Morandi Green KSh 13,500 https://www.jumia.co.ke/infinix-hot-10-play-6.82-64gb-4gb-ram-dual-sim-4g-6000mah-morandi-green-39135712.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10i, 6.52", 64GB + 2GB RAM (Dual SIM), 6000mAh, Black KSh 11,999 https://www.jumia.co.ke/hot-10i-6.52-64gb-2gb-ram-dual-sim-6000mah-black-infinix-mpg326491.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021,6.1"(2+32GB) 5000mAh- GREEN PLUS ALL OFFERS. KSh 9,888 https://www.jumia.co.ke/infinix-smart-hd-20216.1232gb-5000mah-green-plus-all-offers.-35302947.html</t>
+  </si>
+  <si>
+    <t>Infinix SMART HD 2021, [2GB + 32GB], 5000MAH + 5 FREE QUALITY GIFTS KSh 9,932 https://www.jumia.co.ke/infinix-smart-hd-2021-2gb-32gb-5000mah-5-free-quality-gifts-38990827.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021 6.1" 2GB + 32GB, 5000mAh,8MP -Obsidian Black KSh 9,600 https://www.jumia.co.ke/infinix-smart-hd-2021-6.1-2gb-32gb-5000mah8mp-obsidian-black-35425755.html</t>
+  </si>
+  <si>
+    <t>Infinix HOT 10i, 6.52'', 2GB/32GB-(DualSim)-13MP-6000mAh- Green+ FancieGIFTS KSh 11,991 https://www.jumia.co.ke/infinix-hot-10i-6.52-2gb32gb-dualsim-13mp-6000mah-green-fanciegifts-34603612.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, 6.6", 2GB+32GB, 3G, (Dual SIM), 5000MAh - Ocean Wave KSh 9,599 https://www.jumia.co.ke/smart-5-6.6-2gb32gb-3g-dual-sim-5000mah-ocean-wave-infinix-mpg326502.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, 6.6", 32GB ROM + 2GB RAM (Dual-SIM), 3G, 5000MAh, Ocean Wave+FREE GIFTS KSh 10,499 https://www.jumia.co.ke/infinix-smart-5-6.6-32gb-rom-2gb-ram-dual-sim-3g-5000mah-ocean-wavefree-gifts-35330153.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021,6.1" , 2GB RAM + 32GB ROM, 5000mAh,(DUAL SIM) 3G - Green KSh 9,499 https://www.jumia.co.ke/infinix-smart-hd-20216.1-2gb-ram-32gb-rom-5000mahdual-sim-3g-green-35347031.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10T, 6.82",128GB/4GB-4G-48MP-5000mAh,(DUALSIM)-Black+SS FLASHGIFTS KSh 17,499 https://www.jumia.co.ke/infinix-hot-10t-6.82128gb4gb-4g-48mp-5000mahdualsim-blackss-flashgifts-39311415.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021 6.1" 2GB + 32GB, 5000mAh,8MP -Black KSh 9,299 https://www.jumia.co.ke/infinix-smart-hd-2021-6.1-2gb-32gb-5000mah8mp-black-35357715.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021, 6.1", 32GB + 2GB RAM (Dual SIM), 3G LTE, 5000mAh, Topaz Blue KSh 9,498 https://www.jumia.co.ke/infinix-smart-hd-2021-6.1-32gb-2gb-ram-dual-sim-3g-lte-5000mah-topaz-blue-43685770.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021, 6.1" Display 2GB RAM+32GB ROM, 5000mAh Battery- Blue+EXTRA GIFTS KSh 9,699 https://www.jumia.co.ke/infinix-smart-hd-2021-6.1-display-2gb-ram32gb-rom-5000mah-battery-blueextra-gifts-36658200.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10T, 6.82",128GB/4GB-4G-48MP-5000mAh,(DUALSIM)-Black+ SMARTGIFTS KSh 16,499 https://www.jumia.co.ke/infinix-hot-10t-6.82128gb4gb-4g-48mp-5000mahdualsim-black-smartgifts-39146406.html</t>
+  </si>
+  <si>
+    <t>Infinix USB Charger- White KSh 135 https://www.jumia.co.ke/usb-charger-white-infinix-mpg217032.html</t>
+  </si>
+  <si>
+    <t>Infinix SMART HD 2021, [2GB + 32GB], 5000MAH, (DUAL SIM) - BLACK KSh 9,600 https://www.jumia.co.ke/infinix-smart-hd-2021-2gb-32gb-5000mah-dual-sim-black-38990819.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10T, 6.82", BLACK, 128GB+4GB RAM (Dual SIM)+FREE Smart Watch &amp; Other Gifts. KSh 18,399 https://www.jumia.co.ke/infinix-hot-10t-6.82-black-128gb4gb-ram-dual-simfree-smart-watch-other-gifts.-44180835.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021, 6.1", 2GB + 32GB, 5000mAh - BLACK + COVER ,WATCH, OTG,RING KSh 9,800 https://www.jumia.co.ke/infinix-smart-hd-2021-6.1-2gb-32gb-5000mah-black-cover-watch-otgring-46209999.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, 6.6", 2GB + 32GB, Dual Sim, 5000MAh + 8 FREE QUALITY GIFTS KSh 11,800 https://www.jumia.co.ke/infinix-smart-5-6.6-2gb-32gb-dual-sim-5000mah-8-free-quality-gifts-45342489.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, 6.6", 32GB + 2GB RAM (Dual SIM), 4G, 5000MAh,-Midnight Black+FREE GIFTS KSh 10,999 https://www.jumia.co.ke/infinix-smart-5-6.6-32gb-2gb-ram-dual-sim-4g-5000mah-midnight-blackfree-gifts-35006100.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, 6.6"-8MP-2GB/32GB-3G-(Dual Sim)-5000MAh-Ocean Wave-Free Gifts KSh 11,999 https://www.jumia.co.ke/infinix-smart-5-6.6-8mp-2gb32gb-3g-dual-sim-5000mah-ocean-wave-free-gifts-34157097.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021, 6.1"Display 2GB+32GB 5000mAh Battery+3Free Gifts- Blue KSh 9,490 https://www.jumia.co.ke/infinix-smart-hd-2021-6.1display-2gb32gb-5000mah-battery3free-gifts-blue-35331287.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021,Disp 6.1" //2GB + 32GB //5000mAh //8MP //Kingsly- Black KSh 9,440 https://www.jumia.co.ke/infinix-smart-hd-2021disp-6.1-2gb-32gb-5000mah-8mp-kingsly-black-35905815.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10T, 6.82",4GB/64GB RAM-4G-48MP-5000mAh-(DUALSIM) Black SMARTGIFTS KSh 15,399 https://www.jumia.co.ke/infinix-hot-10t-6.824gb64gb-ram-4g-48mp-5000mah-dualsim-black-smartgifts-39146396.html</t>
+  </si>
+  <si>
+    <t>Infinix Note 10, 6.95", 128GB ROM + 4GB RAM,48MP, (Dual SIM),5000mAh,-green+FREE GIFTS KSh 19,599 https://www.jumia.co.ke/infinix-note-10-6.95-128gb-rom-4gb-ram48mp-dual-sim5000mah-greenfree-gifts-43842604.html</t>
+  </si>
+  <si>
+    <t>Infinix Note 10, 6.95", 64GB ROM + 4GB RAM,48MP, (Dual SIM),5000mAh,green+FREE GIFTS KSh 17,899 https://www.jumia.co.ke/infinix-note-10-6.95-64gb-rom-4gb-ram48mp-dual-sim5000mahgreenfree-gifts-43842600.html</t>
+  </si>
+  <si>
+    <t>Infinix HOT 10i, 6.52'', 2GB/64GB-(DualSim)-13MP-6000mAh-Green+FREE MemGIFTS KSh 12,990 https://www.jumia.co.ke/infinix-hot-10i-6.52-2gb64gb-dualsim-13mp-6000mah-greenfree-memgifts-35326426.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10 Play, PROXIMITY SENSOR 6.82", 64GB+ 4GB RAM, 4G, 6000mAh-purple KSh 14,399 https://www.jumia.co.ke/infinix-hot-10-play-proximity-sensor-6.82-64gb-4gb-ram-4g-6000mah-purple-45379832.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, 6.6", 2GB+32GB, 3G, (Dual SIM), 5000MAh - Black KSh 9,599 https://www.jumia.co.ke/smart-5-6.6-2gb32gb-3g-dual-sim-5000mah-black-infinix-mpg325976.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10T, 6.82", 64GB + 4GB RAM (Dual SIM), 5000mAh+FREE GIFT ON PURCHASE. KSh 15,475 https://www.jumia.co.ke/infinix-hot-10t-6.82-64gb-4gb-ram-dual-sim-5000mahfree-gift-on-purchase.-43161434.html</t>
+  </si>
+  <si>
+    <t>Infinix 3.1A 2USB PORT FAST CHARGER KSh 523 https://www.jumia.co.ke/3.1a-2usb-port-fast-charger-infinix-mpg310499.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021,6.1" , 2GB + 32GB, 5000mAh, (Dual Sim) 3G - BLACK KSh 9,299 https://www.jumia.co.ke/infinix-smart-hd-20216.1-2gb-32gb-5000mah-dual-sim-3g-black-47978204.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart 5, 4G= 6.6"-8MP-2GB/32GB-(Dual Sim)-5000MAh-Black+Free Gifts KSh 10,999 https://www.jumia.co.ke/infinix-smart-5-4g-6.6-8mp-2gb32gb-dual-sim-5000mah-blackfree-gifts-35003141.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10T, 6.82", BLACK, 128GB+4GB RAM (Dual SIM)+FREE Powerbank &amp; Other Gifts.. KSh 18,295 https://www.jumia.co.ke/infinix-hot-10t-6.82-black-128gb4gb-ram-dual-simfree-powerbank-other-gifts..-44529663.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10 Play, 6.82", 64GB + 4GB RAM, 6000mAh, 13MP Cam, DUALSIM-BLACK+FREE GIfts KSh 14,299 https://www.jumia.co.ke/infinix-hot-10-play-6.82-64gb-4gb-ram-6000mah-13mp-cam-dualsim-blackfree-gifts-36658188.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021,6.1"(2+32GB) 5000mAh- GREEN PLUS ALL GIFTS KSh 9,798 https://www.jumia.co.ke/infinix-smart-hd-20216.1232gb-5000mah-green-plus-all-gifts-35302945.html</t>
+  </si>
+  <si>
+    <t>Infinix Hot 10T, 6.82",128GB/4GB-4G-48MP-5000mAh,(DUALSIM) GREEN+SSTGIFTS KSh 17,399 https://www.jumia.co.ke/infinix-hot-10t-6.82128gb4gb-4g-48mp-5000mahdualsim-greensstgifts-43187357.html</t>
+  </si>
+  <si>
+    <t>Infinix SMART HD 2021, [2GB + 32GB], 5000MAH, (DUAL SIM) - BLUE KSh 9,600 https://www.jumia.co.ke/infinix-smart-hd-2021-2gb-32gb-5000mah-dual-sim-blue-35331268.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021, 6.1", 32GB + 2GB RAM, (Dual-SIM), 3G LTE, 5000m-GREEN+FREE GIFTS KSh 9,699 https://www.jumia.co.ke/infinix-smart-hd-2021-6.1-32gb-2gb-ram-dual-sim-3g-lte-5000m-greenfree-gifts-48613736.html</t>
+  </si>
+  <si>
+    <t>Infinix Smart HD 2021 6.1" 2GB + 32GB, 5000mAh,8MP +COVER+3D+SELFIESTICK+RING+OTG KSh 9,900 https://www.jumia.co.ke/infinix-smart-hd-2021-6.1-2gb-32gb-5000mah8mp-cover3dselfiestickringotg-47749789.html</t>
+  </si>
+  <si>
+    <t>Nokia 106, [4MB + 4MB], 1.8'', (DUAL SIM) + FREE QUALITY CLASSY WATCH KSh 1,849 https://www.jumia.co.ke/nokia-106-4mb-4mb-1.8-dual-sim-free-quality-classy-watch-30670668.html</t>
+  </si>
+  <si>
+    <t>Nokia C10 6.52" //32GB ROM+ 1GB RAM //Dual SIM -Grey+FREE BT H.SET+WATCH+OTG+RING KSh 8,770 https://www.jumia.co.ke/nokia-c10-6.52-32gb-rom-1gb-ram-dual-sim-greyfree-bt-h.setwatchotgring-44014195.html</t>
+  </si>
+  <si>
+    <t>Nokia 105, [DUAL SIM], 1.77", 4MB, FM RADIO + 2 FREE QUALITY GIFTS KSh 1,929 https://www.jumia.co.ke/nokia-105-dual-sim-1.77-4mb-fm-radio-2-free-quality-gifts-33703454.html</t>
+  </si>
+  <si>
+    <t>Nokia 106, [4MB + 4MB], 1.8'', (DUAL SIM) + 2 FREE QUALITY GIFTS KSh 1,990 https://www.jumia.co.ke/nokia-106-4mb-4mb-1.8-dual-sim-2-free-quality-gifts-44141580.html</t>
+  </si>
+  <si>
+    <t>Nokia C10 - 6.52" - 32GB + 1GB - Dual SIM - Grey KSh 7,399 https://www.jumia.co.ke/nokia-c10-6.52-32gb-1gb-dual-sim-grey-43767306.html</t>
+  </si>
+  <si>
+    <t>Nokia 3.4 - 6.39" - 64GB + 4GB - Dual SIM - Fjord - Blue KSh 13,999 https://www.jumia.co.ke/3.4-6.39-64gb-4gb-dual-sim-fjord-blue-nokia-mpg308132.html</t>
+  </si>
+  <si>
+    <t>Nokia 106 1.8"- 4MB RAM - Dual Sim - Grey + FREE Stereo Earphones KSh 1,899 https://www.jumia.co.ke/nokia-106-1.8-4mb-ram-dual-sim-grey-free-stereo-earphones-19700648.html</t>
+  </si>
+  <si>
+    <t>Nokia G10 6.52"- 4GB RAM- 64GB ROM-13MP+2MP+2MP Triple Camera - 4G 5050 MAh KSh 13,979 https://www.jumia.co.ke/g10-6.52-4gb-ram-64gb-rom-13mp2mp2mp-triple-camera-4g-5050-mah-nokia-mpg334985.html</t>
+  </si>
+  <si>
+    <t>Nokia C20, 6.52", 32GB + 2GB RAM (Dual SIM), 3000mAh, 4G, Sand KSh 9,599 https://www.jumia.co.ke/nokia-c20-6.52-32gb-2gb-ram-dual-sim-3000mah-4g-sand-43674824.html</t>
+  </si>
+  <si>
+    <t>Nokia 105 - Black - Dual Sim-1.77''-4MB ROM(2019 Edition) "A.S" KSh 1,450 https://www.jumia.co.ke/nokia-105-black-dual-sim-1.77-4mb-rom2019-edition-a.s-49562490.html</t>
+  </si>
+  <si>
+    <t>Nokia G10 6.52"- 4GB RAM- 64GB ROM-13MP+2MP+2MP Triple Camera - Blue + FREE GIFTS KSh 14,999 https://www.jumia.co.ke/nokia-g10-6.52-4gb-ram-64gb-rom-13mp2mp2mp-triple-camera-blue-free-gifts-47807352.html</t>
+  </si>
+  <si>
+    <t>Nokia 2.4, 6.5'' Display, 13MP, 4500mAh, 64GB+3GB RAM - Blue PLUS CLASSIC SMART WATCH KSh 14,999 https://www.jumia.co.ke/nokia-2.4-6.5-display-13mp-4500mah-64gb3gb-ram-blue-plus-classic-smart-watch-39066083.html</t>
+  </si>
+  <si>
+    <t>Nokia 105 (SINGLE SIM), 1.77" , RAM 4MB, FM RADIO - Black KSh 1,700 https://www.jumia.co.ke/105-2019-single-sim-1.77-ram-4mb-fm-radio-black-nokia-mpg226532.html</t>
+  </si>
+  <si>
+    <t>Nokia 106 (2018) - 1.8inch - Dual SIM, Dark Grey KSh 1,699 https://www.jumia.co.ke/106-2018-1.8inch-dual-sim-dark-grey-nokia-mpg345310.html</t>
+  </si>
+  <si>
+    <t>Nokia 6.2/7.2 Flip Cover Case - Black KSh 1,599 https://www.jumia.co.ke/nokia-6.27.2-flip-cover-case-black-26245790.html</t>
+  </si>
+  <si>
+    <t>Nokia 5310, 2.4'', Dualsim, 16MB + 8MB ,With Memorycard Slot-(black/red) KSh 4,499 https://www.jumia.co.ke/nokia-5310-2.4-dualsim-16mb-8mb-with-memorycard-slot-blackred-34698336.html</t>
+  </si>
+  <si>
+    <t>Nokia C1 - 5.45" - 16GB + 1GB (Dual SIM) Android 2500mAh-Charcoal PLUS A GIFT KSh 7,098 https://www.jumia.co.ke/nokia-c1-5.45-16gb-1gb-dual-sim-android-2500mah-charcoal-plus-a-gift-34776653.html</t>
+  </si>
+  <si>
+    <t>Nokia 105 Dual Sim (2019)1.77", FP, FM Radio, RAM -4MB -Black KSh 1,598 https://www.jumia.co.ke/nokia-105-dual-sim-20191.77-fp-fm-radio-ram-4mb-black-43593725.html</t>
+  </si>
+  <si>
+    <t>Nokia 105, [DUAL SIM], 1.77", 4MB, FM RADIO + FREE GIFTS WATCH.BT KSh 1,866 https://www.jumia.co.ke/nokia-105-dual-sim-1.77-4mb-fm-radio-free-gifts-watch.bt-47443154.html</t>
+  </si>
+  <si>
+    <t>Nokia C1, 16GB + 1 GB, (Dual Sim) 2500 MAh ,5MP, (Go Edition) Charcoal. + SMART WATCH KSh 7,588 https://www.jumia.co.ke/nokia-c1-16gb-1-gb-dual-sim-2500-mah-5mp-go-edition-charcoal.-smart-watch-39071619.html</t>
+  </si>
+  <si>
+    <t>Nokia G10 6.52"- 4GB RAM- 64GB ROM-13MP+2MP+2MP Triple Camera - Blue + Smart Watch KSh 14,999 https://www.jumia.co.ke/nokia-g10-6.52-4gb-ram-64gb-rom-13mp2mp2mp-triple-camera-blue-smart-watch-45572081.html</t>
+  </si>
+  <si>
+    <t>Nokia C10, 6.5"Display, 32GB + 1GB RAM (Dual SIM), 3000mAh_Grey + QUALITY SMART WATCH KSh 8,998 https://www.jumia.co.ke/nokia-c10-6.5display-32gb-1gb-ram-dual-sim-3000mahgrey-quality-smart-watch-47749863.html</t>
+  </si>
+  <si>
+    <t>Nokia 105 (2019) 1.77" (Dual SIM) - Black + FREE Stereo Earphones KSh 1,799 https://www.jumia.co.ke/105-2019-1.77-dual-sim-black-free-stereo-earphones-nokia-mpg213880.html</t>
+  </si>
+  <si>
+    <t>Nokia C1, 5.45", 1GB +16GB - (DUAL SIM),Android 9 Pie, Charcoal + FREE OTG KSh 6,995 https://www.jumia.co.ke/c1-5.45-1gb-16gb-dual-simandroid-9-piego-edition-charcoal-free-otg-nokia-mpg228542.html</t>
+  </si>
+  <si>
+    <t>Nokia 105-Dual Sim 1.77"(2019) FP,4MB RAM, FM Radio-Black+FREE WRIST WATCH KSh 1,740 https://www.jumia.co.ke/nokia-105-dual-sim-1.772019-fp4mb-ram-fm-radio-blackfree-wrist-watch-44015836.html</t>
+  </si>
+  <si>
+    <t>Nokia C10, 6.5"Display, 32GB + 1GB RAM (Dual SIM), 3000mAh_Grey + Smart Watch KSh 9,470 https://www.jumia.co.ke/nokia-c10-6.5display-32gb-1gb-ram-dual-sim-3000mahgrey-smart-watch-45413511.html</t>
+  </si>
+  <si>
+    <t>Nokia 106, [4MB RAM + 4MB ROM], 1.8'', (DUAL SIM) - PHONE KSh 1,699 https://www.jumia.co.ke/106-dual-sim1.8-4-mb-ram-4mb-rom-dark-grey-nokia-mpg308121.html</t>
+  </si>
+  <si>
+    <t>Nokia 3310, 2.4”, [16MB RAM], 2MP, DUAL SIM + FREE QUALITY EARPHONES KSh 4,530 https://www.jumia.co.ke/nokia-3310-2.4-16mb-ram-2mp-dual-sim-free-quality-earphones-43572796.html</t>
+  </si>
+  <si>
+    <t>Nokia 2720 Flip Phone 2.8 "-dual Sim KSh 4,500 https://www.jumia.co.ke/nokia-2720-flip-phone-2.8-dual-sim-47184523.html</t>
+  </si>
+  <si>
+    <t>Nokia G10 6.52" //4GB + 64GB //13MP //4G //Dual Sim -Blue +FREE BT+WATCH+OTG C+RING KSh 14,990 https://www.jumia.co.ke/nokia-g10-6.52-4gb-64gb-13mp-4g-dual-sim-blue-free-btwatchotg-cring-47073472.html</t>
+  </si>
+  <si>
+    <t>Nokia 2.4 - BLUE, 6.5" - 64GB + 3GB - 4500mAh - Dual SIM + Smart Watch &amp; BONUS Gifts. KSh 14,455 https://www.jumia.co.ke/nokia-2.4-blue-6.5-64gb-3gb-4500mah-dual-sim-smart-watch-bonus-gifts.-48666142.html</t>
+  </si>
+  <si>
+    <t>Nokia 1.4, 6.517"Display, 32GB ROM + 2GB RAM (Dual SIM), 4000mAh, BLUE,, FREE SMART KSh 11,444 https://www.jumia.co.ke/nokia-1.4-6.517display-32gb-rom-2gb-ram-dual-sim-4000mah-blue-free-smart-43468301.html</t>
+  </si>
+  <si>
+    <t>Nokia 105 (DUAL SIM), 1.77", RAM 4MB, FM RADIO - BLACK +GIFTS KSh 2,099 https://www.jumia.co.ke/nokia-105-dual-sim-1.77-ram-4mb-fm-radio-black-gifts-47184871.html</t>
+  </si>
+  <si>
+    <t>Nokia 6310 (2021)//Dual Sim //1150mAh //FM Radio //MP3 Player //Kingsly -Black KSh 5,299 https://www.jumia.co.ke/6310-2021dual-sim-1150mah-fm-radio-mp3-player-kingsly-black-nokia-mpg336951.html</t>
+  </si>
+  <si>
+    <t>Nokia 105, [DUAL SIM], 1.77", 4MB, FM RADIO + FREE QUALITY EARPHONES KSh 1,649 https://www.jumia.co.ke/nokia-105-dual-sim-1.77-4mb-fm-radio-free-quality-earphones-28933689.html</t>
+  </si>
+  <si>
+    <t>Nokia C1 //Disp 5.45" //16GB ROM+1GB RAM //Dual Sim //2500 MAh //5MP //Ksly -Charcoal KSh 7,990 https://www.jumia.co.ke/nokia-c1-disp-5.45-16gb-rom1gb-ram-dual-sim-2500-mah-5mp-ksly-charcoal-48058106.html</t>
+  </si>
+  <si>
+    <t>Nokia 105, [DUAL SIM], 1.77", 4MB, FM RADIO + FREE QUALITY WATCH KSh 1,829 https://www.jumia.co.ke/nokia-105-dual-sim-1.77-4mb-fm-radio-free-quality-watch-33703452.html</t>
+  </si>
+  <si>
+    <t>Nokia 105 (DUAL SIM), 1.77", RAM 4MB, FM RADIO - BLACK + FREE BLUETOOTH KSh 1,760 https://www.jumia.co.ke/nokia-105-dual-sim-1.77-ram-4mb-fm-radio-black-free-bluetooth-43971760.html</t>
+  </si>
+  <si>
+    <t>Nokia 3.4 - 6.39”,64GB +4GB RAM (Dual SIM)+BACK COVER+9D GLASS PROTECTOR,Charcoal KSh 15,999 https://www.jumia.co.ke/nokia-3.4-6.3964gb-4gb-ram-dual-simback-cover9d-glass-protectorcharcoal-38465271.html</t>
+  </si>
+  <si>
+    <t>Nokia C2-05, 2'', 64 MB, 0.3MP Camera Radio Bluetooth GSM 900 / 1800 KSh 2,550 https://www.jumia.co.ke/nokia-c2-05-2-64-mb-0.3mp-camera-radio-bluetooth-gsm-900-1800-34003557.html</t>
+  </si>
+  <si>
+    <t>Nokia G10 6.52"- 4GB RAM- 64GB ROM-13MP+2MP+2MP Triple Camera - 4G - 5050 MAh Dual Sim KSh 14,380 https://www.jumia.co.ke/g10-6.524gb-ram64gb-rom13mp2mp2mp-triple-camera-4g5050-mahdual-sim-nokia-mpg328116.html</t>
+  </si>
+  <si>
+    <t>Nokia 106 - (Dual Sim), FM Radio, Torch Light - Dark Grey KSh 1,579 https://www.jumia.co.ke/nokia-106-dual-sim-fm-radio-torch-light-dark-grey-51754467.html</t>
+  </si>
+  <si>
+    <t>Nokia 5300 2G Mobile Cell Phone Keyboard Mobile Phones（Refurbish） KSh 2,980 https://www.jumia.co.ke/nokia-5300-2g-mobile-cell-phone-keyboard-mobile-phonesrefurbish-33004093.html</t>
+  </si>
+  <si>
+    <t>Nokia 3.4, 6.39'' Display, 13MP, 4000mAh, 64GB+4GB RAM - Charcoal KSh 14,998 https://www.jumia.co.ke/3.4-6.39-display-13mp-4000mah-64gb4gb-ram-blue-nokia-mpg308134.html</t>
+  </si>
+  <si>
+    <t>Nokia 106, Dual Sim,1.8'', 4 MB RAM + 4MB ROM - DARK GREY + FREE CLASSIC WATCH+BT KSh 2,098 https://www.jumia.co.ke/nokia-106-dual-sim1.8-4-mb-ram-4mb-rom-dark-grey-free-classic-watchbt-47419927.html</t>
+  </si>
+  <si>
+    <t>Nokia C2-05 Slide Cell Phone Bluetooth FM Radion Phone-Pink（Refurbish） KSh 2,680 https://www.jumia.co.ke/nokia-c2-05-slide-cell-phone-bluetooth-fm-radion-phone-pinkrefurbish-33004110.html</t>
+  </si>
+  <si>
+    <t>Nokia C2-05 Slide Gsm Touch&amp;Type Mobile Phone Black Blue Red Uk Seller KSh 2,600 https://www.jumia.co.ke/c2-05-slide-gsm-touchtype-mobile-phone-black-blue-red-uk-seller-nokia-mpg165760.html</t>
+  </si>
+  <si>
+    <t>Nokia C10, 6.5"Display, 32GB + 1GB RAM (Dual SIM), 3000mAh_Grey +ESSENTIAL GIFTS KSh 8,998 https://www.jumia.co.ke/nokia-c10-6.5display-32gb-1gb-ram-dual-sim-3000mahgrey-essential-gifts-47749867.html</t>
   </si>
 </sst>
 </file>
@@ -851,282 +872,282 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
